--- a/Pre-processing/Abnormalities_Features-V4.xlsx
+++ b/Pre-processing/Abnormalities_Features-V4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golzardm\Documents\paper-TDA-embankment-monitoring\Pre-processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102BB3F0-5A00-4FF6-AF9F-E1DFB6B448A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B282FF6-2826-4060-A274-C04B8D469C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F2A9B525-589D-4D02-9202-6C3488D882EF}"/>
   </bookViews>
